--- a/power-pivot-create-relationships-start.xlsx
+++ b/power-pivot-create-relationships-start.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06AD9C9-9E43-4EA2-8051-099F866B495D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445B17B1-DDA6-48F2-B20E-9DC3C4340DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dept" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,23 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -281,7 +297,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A43C3762-E5C4-4270-9209-CB3B7A6E3007}" name="dept" displayName="dept" ref="A1:B11" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8E5E4CFB-3CFD-4CE2-B05E-E1A65CF80512}" name="dept_no"/>
+    <tableColumn id="1" xr3:uid="{8E5E4CFB-3CFD-4CE2-B05E-E1A65CF80512}" name="dept_no" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D88FC029-1986-4BD4-9575-DAD58B41092C}" name="dept_title"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -295,9 +311,9 @@
     <tableColumn id="2" xr3:uid="{E54EE68A-07A2-4A94-B579-F2352033DDE3}" name="e_name"/>
     <tableColumn id="3" xr3:uid="{D148A2A5-55F0-43C5-A3CE-ACE40E8A6BF4}" name="job"/>
     <tableColumn id="4" xr3:uid="{752CDEEF-13B0-43DA-8158-8CBF8FEE6C9F}" name="mgr"/>
-    <tableColumn id="5" xr3:uid="{9EE70EFC-DB39-4A88-B609-6B39F016A2CC}" name="hire_date" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{9EE70EFC-DB39-4A88-B609-6B39F016A2CC}" name="hire_date" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{DB1A3743-B2D1-46FA-9B30-2C38DA9509DE}" name="sal"/>
-    <tableColumn id="7" xr3:uid="{5A69619A-020B-4473-A00C-2140546ACC1F}" name="dept_no"/>
+    <tableColumn id="7" xr3:uid="{5A69619A-020B-4473-A00C-2140546ACC1F}" name="dept_no" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -581,11 +597,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.06640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -688,10 +708,19 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G21"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -1188,7 +1217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D011B4F-7057-41D4-9AB6-35BCD81A77E6}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/power-pivot-create-relationships-start.xlsx
+++ b/power-pivot-create-relationships-start.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06AD9C9-9E43-4EA2-8051-099F866B495D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFB5B43-EA09-49A5-8C39-BDE4216457CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dept" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>dept_no</t>
   </si>
@@ -289,8 +289,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{082B0E77-9970-4B7D-9001-45A6EB24DF44}" name="emp" displayName="emp" ref="A1:G21" totalsRowShown="0">
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{082B0E77-9970-4B7D-9001-45A6EB24DF44}" name="emp" displayName="emp" ref="A1:H21" totalsRowShown="0">
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B09AC4D6-8E44-4ED7-B226-24CDD88809D9}" name="emp_no"/>
     <tableColumn id="2" xr3:uid="{E54EE68A-07A2-4A94-B579-F2352033DDE3}" name="e_name"/>
     <tableColumn id="3" xr3:uid="{D148A2A5-55F0-43C5-A3CE-ACE40E8A6BF4}" name="job"/>
@@ -298,6 +298,7 @@
     <tableColumn id="5" xr3:uid="{9EE70EFC-DB39-4A88-B609-6B39F016A2CC}" name="hire_date" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{DB1A3743-B2D1-46FA-9B30-2C38DA9509DE}" name="sal"/>
     <tableColumn id="7" xr3:uid="{5A69619A-020B-4473-A00C-2140546ACC1F}" name="dept_no"/>
+    <tableColumn id="8" xr3:uid="{511A03A5-085D-47E8-8A01-74EEE4779B88}" name="locno"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -685,15 +686,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA58379-BA99-44B3-85E2-B5F3287D31BD}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -715,8 +719,11 @@
       <c r="G1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>9759</v>
       </c>
@@ -738,8 +745,11 @@
       <c r="G2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>5156</v>
       </c>
@@ -761,8 +771,11 @@
       <c r="G3">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>9844</v>
       </c>
@@ -784,8 +797,11 @@
       <c r="G4">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4965</v>
       </c>
@@ -807,8 +823,11 @@
       <c r="G5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5262</v>
       </c>
@@ -830,8 +849,11 @@
       <c r="G6">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1403</v>
       </c>
@@ -853,8 +875,11 @@
       <c r="G7">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>8215</v>
       </c>
@@ -876,8 +901,11 @@
       <c r="G8">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>9735</v>
       </c>
@@ -899,8 +927,11 @@
       <c r="G9">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7870</v>
       </c>
@@ -922,8 +953,11 @@
       <c r="G10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>4460</v>
       </c>
@@ -945,8 +979,11 @@
       <c r="G11">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>3304</v>
       </c>
@@ -968,8 +1005,11 @@
       <c r="G12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>6811</v>
       </c>
@@ -991,8 +1031,11 @@
       <c r="G13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>9909</v>
       </c>
@@ -1014,8 +1057,11 @@
       <c r="G14">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>6395</v>
       </c>
@@ -1037,8 +1083,11 @@
       <c r="G15">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>4858</v>
       </c>
@@ -1060,8 +1109,11 @@
       <c r="G16">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>8514</v>
       </c>
@@ -1083,8 +1135,11 @@
       <c r="G17">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>4518</v>
       </c>
@@ -1106,8 +1161,11 @@
       <c r="G18">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>3891</v>
       </c>
@@ -1129,8 +1187,11 @@
       <c r="G19">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2029</v>
       </c>
@@ -1152,8 +1213,11 @@
       <c r="G20">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>7852</v>
       </c>
@@ -1174,6 +1238,9 @@
       </c>
       <c r="G21">
         <v>50</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1188,7 +1255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D011B4F-7057-41D4-9AB6-35BCD81A77E6}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/power-pivot-create-relationships-start.xlsx
+++ b/power-pivot-create-relationships-start.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445B17B1-DDA6-48F2-B20E-9DC3C4340DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F63F84F-D334-40DE-81A7-CEA3920FDEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>dept_no</t>
   </si>
@@ -271,15 +271,15 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -297,7 +297,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A43C3762-E5C4-4270-9209-CB3B7A6E3007}" name="dept" displayName="dept" ref="A1:B11" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8E5E4CFB-3CFD-4CE2-B05E-E1A65CF80512}" name="dept_no" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8E5E4CFB-3CFD-4CE2-B05E-E1A65CF80512}" name="dept_no" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{D88FC029-1986-4BD4-9575-DAD58B41092C}" name="dept_title"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -305,15 +305,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{082B0E77-9970-4B7D-9001-45A6EB24DF44}" name="emp" displayName="emp" ref="A1:G21" totalsRowShown="0">
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{082B0E77-9970-4B7D-9001-45A6EB24DF44}" name="emp" displayName="emp" ref="A1:H21" totalsRowShown="0">
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B09AC4D6-8E44-4ED7-B226-24CDD88809D9}" name="emp_no"/>
     <tableColumn id="2" xr3:uid="{E54EE68A-07A2-4A94-B579-F2352033DDE3}" name="e_name"/>
     <tableColumn id="3" xr3:uid="{D148A2A5-55F0-43C5-A3CE-ACE40E8A6BF4}" name="job"/>
     <tableColumn id="4" xr3:uid="{752CDEEF-13B0-43DA-8158-8CBF8FEE6C9F}" name="mgr"/>
-    <tableColumn id="5" xr3:uid="{9EE70EFC-DB39-4A88-B609-6B39F016A2CC}" name="hire_date" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{9EE70EFC-DB39-4A88-B609-6B39F016A2CC}" name="hire_date" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{DB1A3743-B2D1-46FA-9B30-2C38DA9509DE}" name="sal"/>
-    <tableColumn id="7" xr3:uid="{5A69619A-020B-4473-A00C-2140546ACC1F}" name="dept_no" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{5A69619A-020B-4473-A00C-2140546ACC1F}" name="dept_no" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{660D9AB9-B174-4524-A469-153DD2DCFABC}" name="locno"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -598,7 +599,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -705,11 +706,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA58379-BA99-44B3-85E2-B5F3287D31BD}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -722,7 +721,7 @@
     <col min="7" max="7" width="7.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -744,8 +743,11 @@
       <c r="G1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>9759</v>
       </c>
@@ -767,8 +769,11 @@
       <c r="G2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>5156</v>
       </c>
@@ -790,8 +795,11 @@
       <c r="G3">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>9844</v>
       </c>
@@ -813,8 +821,11 @@
       <c r="G4">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4965</v>
       </c>
@@ -836,8 +847,11 @@
       <c r="G5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5262</v>
       </c>
@@ -859,8 +873,11 @@
       <c r="G6">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1403</v>
       </c>
@@ -882,8 +899,11 @@
       <c r="G7">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>8215</v>
       </c>
@@ -905,8 +925,11 @@
       <c r="G8">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>9735</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="G9">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7870</v>
       </c>
@@ -951,8 +977,11 @@
       <c r="G10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>4460</v>
       </c>
@@ -974,8 +1003,11 @@
       <c r="G11">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>3304</v>
       </c>
@@ -997,8 +1029,11 @@
       <c r="G12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>6811</v>
       </c>
@@ -1020,8 +1055,11 @@
       <c r="G13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>9909</v>
       </c>
@@ -1043,8 +1081,11 @@
       <c r="G14">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>6395</v>
       </c>
@@ -1066,8 +1107,11 @@
       <c r="G15">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>4858</v>
       </c>
@@ -1089,8 +1133,11 @@
       <c r="G16">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>8514</v>
       </c>
@@ -1112,8 +1159,11 @@
       <c r="G17">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>4518</v>
       </c>
@@ -1135,8 +1185,11 @@
       <c r="G18">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>3891</v>
       </c>
@@ -1158,8 +1211,11 @@
       <c r="G19">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2029</v>
       </c>
@@ -1181,8 +1237,11 @@
       <c r="G20">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>7852</v>
       </c>
@@ -1203,6 +1262,9 @@
       </c>
       <c r="G21">
         <v>50</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1218,7 +1280,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
